--- a/materialdb_1.xlsx
+++ b/materialdb_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/Weekly_Python/Week1_Trial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/wk1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E479E-3371-2F4D-9BB8-94B0CC3B536E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78655507-685C-DD4A-8046-6885FB76ACEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="460" windowWidth="19200" windowHeight="16820" xr2:uid="{F8B8AE1D-9B2A-CC47-AE0E-D6BACB543E8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Li(Ni0.5Mn0.2Co0.3)O2</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cathode</t>
+  </si>
+  <si>
+    <t>anode</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60A170-6BE9-914B-ADA0-5124067DAE56}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +511,7 @@
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +521,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -534,8 +549,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -545,8 +563,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -556,8 +577,11 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -567,8 +591,11 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -578,8 +605,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -589,8 +619,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -600,8 +633,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -611,8 +647,11 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -622,8 +661,11 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -633,8 +675,11 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -644,8 +689,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -654,6 +702,9 @@
       </c>
       <c r="C14" t="s">
         <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/materialdb_1.xlsx
+++ b/materialdb_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/wk1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78655507-685C-DD4A-8046-6885FB76ACEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD775BB-A9B2-414B-BE94-9F8016B7DEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="460" windowWidth="19200" windowHeight="16820" xr2:uid="{F8B8AE1D-9B2A-CC47-AE0E-D6BACB543E8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>anode</t>
+  </si>
+  <si>
+    <t>equivalence</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60A170-6BE9-914B-ADA0-5124067DAE56}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,7 @@
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +527,11 @@
       <c r="D1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -538,8 +544,11 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -552,8 +561,11 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="D4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -580,8 +595,11 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -594,8 +612,11 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -608,8 +629,11 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -622,8 +646,11 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -636,8 +663,11 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -650,8 +680,11 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -664,8 +697,11 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -678,8 +714,11 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -692,8 +731,11 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -705,6 +747,9 @@
       </c>
       <c r="D14" t="s">
         <v>37</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/materialdb_1.xlsx
+++ b/materialdb_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/wk1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD775BB-A9B2-414B-BE94-9F8016B7DEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EA09D-9FD6-BD41-AB5A-E36EDB00685E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="460" windowWidth="19200" windowHeight="16820" xr2:uid="{F8B8AE1D-9B2A-CC47-AE0E-D6BACB543E8D}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>silicon</t>
   </si>
   <si>
-    <t>Li(Ni0.33Mn0.33Co0.33)O2</t>
-  </si>
-  <si>
     <t>NMC523</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>equivalence</t>
+  </si>
+  <si>
+    <t>Li(Ni0.3333Mn0.3333Co0.3333)O2</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>4</v>
